--- a/src/main/java/Excel/Results.xlsx
+++ b/src/main/java/Excel/Results.xlsx
@@ -12,12 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
-    <t>Sample Name</t>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>Sample_1</t>
+  </si>
+  <si>
+    <t>Sample_2</t>
+  </si>
+  <si>
+    <t>Sample_3</t>
   </si>
   <si>
     <t>Geometric Mean</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Arithmetic Mean</t>
@@ -90,44 +102,44 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>3.0187694628076245</v>
+      <c r="D2" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>3.0187694628076245</v>
+      <c r="D3" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="D4" t="n" s="0">
-        <v>3.0187694628076245</v>
+      <c r="D4" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Excel/Results.xlsx
+++ b/src/main/java/Excel/Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Samples</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>Geometric Mean</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Arithmetic Mean</t>
@@ -104,42 +101,15 @@
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>5</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Excel/Results.xlsx
+++ b/src/main/java/Excel/Results.xlsx
@@ -6,35 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculation Results" r:id="rId3" sheetId="1"/>
+    <sheet name="Calculations Results" r:id="rId3" sheetId="1"/>
+    <sheet name="Covariance Matrix" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Samples</t>
-  </si>
-  <si>
-    <t>Sample_1</t>
-  </si>
-  <si>
-    <t>Sample_2</t>
-  </si>
-  <si>
-    <t>Sample_3</t>
-  </si>
-  <si>
-    <t>Geometric Mean</t>
-  </si>
-  <si>
-    <t>Arithmetic Mean</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,39 +56,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>3</v>
+      <c r="A1" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
+      <c r="A2" t="n" s="0">
+        <v>0.5490716333494366</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
+      <c r="A3" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>6</v>
+      <c r="A4" t="n" s="0">
+        <v>0.08575586070772259</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>0.5981925273873964</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>2.2377693211459815</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>0.5618782570667403</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>0.2088419802184494</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>3.0187694628076245</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>1.9783054874278605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>0.8995421954413824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>14.539280728964417</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>0.315707175764358</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>0.010352502365498943</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>0.29473446657327257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>0.010352502365498943</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>0.0436149727015632</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>0.01230734702769087</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>0.29473446657327257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>0.01230734702769087</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>9.112969069579835</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>655.2068306815343</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>34.91216801563302</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>134.90083335585663</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>-0.11266583443609558</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>0.3997708322435782</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>2.0393476260021632</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>0.315707175764358</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>0.04361497270156321</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>9.112969069579835</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>-0.9950319151394069</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>0.09216914351260054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>-3.9137531981865763</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>0.9832735722884536</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>0.9917113389539829</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>10.625527530777841</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.8515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.8515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n" s="0">
+        <v>0.315707175764358</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>0.010352502365498943</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>0.29473446657327257</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>0.010352502365498943</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>0.0436149727015632</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.01230734702769087</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>0.29473446657327257</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>0.01230734702769087</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>9.112969069579835</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Excel/Results.xlsx
+++ b/src/main/java/Excel/Results.xlsx
@@ -24,34 +24,34 @@
     <t>Sample_3</t>
   </si>
   <si>
-    <t>Method1</t>
-  </si>
-  <si>
-    <t>Method2</t>
-  </si>
-  <si>
-    <t>Method3</t>
-  </si>
-  <si>
-    <t>Method4</t>
-  </si>
-  <si>
-    <t>Method5</t>
-  </si>
-  <si>
-    <t>Method6</t>
-  </si>
-  <si>
-    <t>Method7</t>
-  </si>
-  <si>
-    <t>Method8</t>
-  </si>
-  <si>
-    <t>Method9</t>
-  </si>
-  <si>
-    <t>Method10</t>
+    <t>Geometric_Mean</t>
+  </si>
+  <si>
+    <t>Arithmetic_Mean</t>
+  </si>
+  <si>
+    <t>Standard_Deviation</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Elements_Count</t>
+  </si>
+  <si>
+    <t>Variation</t>
+  </si>
+  <si>
+    <t>Confidence_Interval</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -101,6 +101,12 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="11.71875" customWidth="true"/>
+    <col min="4" max="4" width="11.71875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s" s="0">
@@ -117,14 +123,14 @@
       <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>0.0</v>
+      <c r="B2" t="e" s="0">
+        <v>#NUM!</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>0.5490716333494366</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
+      <c r="D2" t="e" s="0">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="3">
